--- a/xlsx/美国副总统_intext.xlsx
+++ b/xlsx/美国副总统_intext.xlsx
@@ -15,1863 +15,1839 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
   <si>
     <t>美国副总统</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>迈克·彭斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8A%E7%A7%B0</t>
+  </si>
+  <si>
+    <t>尊称</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>任期制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·亚当斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>美国总统继任顺序</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>麦克·彭斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>美国总统行政办公室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
+  </si>
+  <si>
+    <t>保罗·莱恩</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
+  </si>
+  <si>
+    <t>en-Party leaders of the United States House of Representatives</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
+  </si>
+  <si>
+    <t>en-List of United States congressional districts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
+  </si>
+  <si>
+    <t>奥林·哈奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
+  </si>
+  <si>
+    <t>美国参议院政党领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>约翰·格洛佛·罗伯茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国最高法院大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国中期选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>美国第三党派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国政党列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_government</t>
+  </si>
+  <si>
+    <t>en-State government</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>地方政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>州长 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
+  </si>
+  <si>
+    <t>en-State legislature (United States)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>州法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国外交关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国政治列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>Template talk-美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E7%BB%A7%E4%BB%BB%E9%A1%BA%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9E%E8%81%8C</t>
+  </si>
+  <si>
+    <t>辞职</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E5%8A%BE</t>
+  </si>
+  <si>
+    <t>弹劾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国参议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E8%A5%BF%E5%8E%A2%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>白宫西厢办公室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E5%A4%A9%E6%96%87%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>美国海军天文台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十二条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十二条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%88%88%E5%B0%94</t>
+  </si>
+  <si>
+    <t>艾伯特·戈尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>2000年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%90%AA%C2%B7%E5%BE%B7%E6%B2%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>贝琪·德沃斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
+  </si>
+  <si>
+    <t>约翰·泰勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC25%E6%A2%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第25条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%8B%89%E5%B0%94%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>杰拉尔德·福特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>理查德·尼克松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>乔治·克林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
+  </si>
+  <si>
+    <t>托马斯·杰斐逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
+  </si>
+  <si>
+    <t>詹姆斯·麦迪逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
+  </si>
+  <si>
+    <t>约翰·C·卡尔霍恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·昆西·亚当斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
+  </si>
+  <si>
+    <t>安德鲁·杰克逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%B8%83%E9%87%8C%E5%A5%87%C2%B7%E6%A0%BC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>埃尔布里奇·格里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%B2%81%E7%A6%8F%E6%96%AF%C2%B7%E9%87%91</t>
+  </si>
+  <si>
+    <t>威廉·鲁福斯·金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
+  </si>
+  <si>
+    <t>亨利·威尔逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7A%C2%B7%E4%BA%A8%E5%BE%B7%E9%87%8C%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>托马斯·A·亨德里克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E7%89%B9%C2%B7A%C2%B7%E9%9C%8D%E5%B7%B4%E7%89%B9</t>
+  </si>
+  <si>
+    <t>加勒特·A·霍巴特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7S%C2%B7%E8%88%8D%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>詹姆斯·S·舍曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%93</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7M%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>理查德·M·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>安德鲁·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>林登·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%9A%AE%E7%BD%97%C2%B7%E9%98%BF%E6%A0%BC%E7%BA%BD</t>
+  </si>
+  <si>
+    <t>斯皮罗·阿格纽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>威廉·亨利·哈里森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92%E5%BE%B7%C2%B7%E8%8F%B2%E5%B0%94%E8%8E%AB%E5%B0%94</t>
+  </si>
+  <si>
+    <t>米勒德·菲尔莫尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E9%87%8C%C2%B7%E6%B3%B0%E5%8B%92</t>
+  </si>
+  <si>
+    <t>扎卡里·泰勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%96%AF%E7%89%B9%C2%B7A%C2%B7%E9%98%BF%E7%91%9F</t>
+  </si>
+  <si>
+    <t>切斯特·A·阿瑟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%8A%A0%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>詹姆斯·加菲尔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>西奥多·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%BA%A6%E9%87%91%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>威廉·麦金莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%87%C2%B7%E6%9F%AF%E7%AB%8B%E8%8A%9D</t>
+  </si>
+  <si>
+    <t>卡尔文·柯立芝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7G%C2%B7%E5%93%88%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>沃伦·G·哈定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
+  </si>
+  <si>
+    <t>哈利·S·杜鲁门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·德拉诺·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>约翰·肯尼迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
+  </si>
+  <si>
+    <t>乔治·华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%8C%83%E5%B8%83%E5%80%AB</t>
+  </si>
+  <si>
+    <t>马丁·范布伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·H·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%A5%B4%C2%B7%E5%88%97%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>朗奴·列根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E5%B0%94</t>
+  </si>
+  <si>
+    <t>沃尔特·蒙代尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%C2%B7%E5%A5%8E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>丹·奎尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E5%88%87%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>迪克·切尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E6%8B%9C%E7%99%BB</t>
+  </si>
+  <si>
+    <t>乔·拜登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
+  </si>
+  <si>
+    <t>联邦党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>民主共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%BE%8D%C2%B7%E4%BC%AF%E7%88%BE</t>
+  </si>
+  <si>
+    <t>阿龙·伯尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E6%B1%A4%E6%99%AE%E9%87%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>丹尼尔·汤普金斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%97%A8%E7%BD%97</t>
+  </si>
+  <si>
+    <t>詹姆斯·门罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%8C%83%E5%B8%83%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%89%E6%A0%BC%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>辉格党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7M%C2%B7%E9%81%94%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>乔治·M·达拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E5%B0%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>詹姆斯·诺克斯·波尔克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%9A%AE%E5%B0%94%E6%96%AF</t>
+  </si>
+  <si>
+    <t>福兰克林·皮尔斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%B8%83%E9%9B%B7%E8%82%AF%E9%87%8C%E5%A5%87</t>
+  </si>
+  <si>
+    <t>约翰·C·布雷肯里奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
+  </si>
+  <si>
+    <t>詹姆斯·布坎南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%B0%BC%E5%B7%B4%E5%B0%94%C2%B7%E5%93%88%E5%A7%86%E6%9E%97</t>
+  </si>
+  <si>
+    <t>汉尼巴尔·哈姆林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%87%AF%E5%8B%92%C2%B7%E7%A7%91%E5%B0%94%E6%B3%95%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斯凯勒·科尔法克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E8%A5%BF%E6%96%AF%C2%B7%E8%BE%9B%E6%99%AE%E6%A3%AE%C2%B7%E6%A0%BC%E5%85%B0%E7%89%B9</t>
+  </si>
+  <si>
+    <t>尤里西斯·辛普森·格兰特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7A%C2%B7%E6%83%A0%E5%8B%92</t>
+  </si>
+  <si>
+    <t>威廉·A·惠勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7B%C2%B7%E6%B5%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>拉瑟福德·B·海斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BD%97%E5%BC%97%C2%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%85%B0</t>
+  </si>
+  <si>
+    <t>格罗弗·克利夫兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>本杰明·哈里森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7W%C2%B7%E8%B2%BB%E7%88%BE%E7%8F%AD%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·W·费尔班克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
+  </si>
+  <si>
+    <t>威廉·霍华德·塔夫脱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7R%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>托马斯·R·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BD%97%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
+  </si>
+  <si>
+    <t>伍德罗·威尔逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7G%C2%B7%E9%81%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·G·道斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%9F%AF%E8%92%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·柯蒂斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>赫伯特·胡佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%97%E6%96%AF%C2%B7%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>约翰·南斯·加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7A%C2%B7%E5%8D%8E%E8%8E%B1%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>亨利·A·华莱士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E6%9C%AC%C2%B7W%C2%B7%E5%B7%B4%E5%85%8B%E5%88%A9</t>
+  </si>
+  <si>
+    <t>艾尔本·W·巴克利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7D%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
+  </si>
+  <si>
+    <t>德怀特·D·艾森豪威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E4%BC%AF%E7%89%B9%C2%B7%E6%B1%89%E5%BC%97%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>休伯特·汉弗莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B0%94%E9%80%8A%C2%B7%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
+  </si>
+  <si>
+    <t>纳尔逊·洛克菲勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
+  </si>
+  <si>
+    <t>吉米·卡特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>比尔·克林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·W·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>巴拉克·欧巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>美国国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国财政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国防部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国内政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国农业部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国商务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国劳工部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国卫生及公共服务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国住房及城市发展部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国运输部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国能源部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国教育部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国退伍军人事务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国土安全部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地方法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国副总统列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%BE%99%C2%B7%E4%BC%AF%E5%B0%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7D%C2%B7%E6%B1%A4%E6%99%AE%E9%87%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>丹尼尔·D·汤普金斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E9%97%A8%E7%89%B9%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>理查德·门特·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E7%89%B9%C2%B7%E9%9C%8D%E5%B7%B4%E7%89%B9</t>
+  </si>
+  <si>
+    <t>加勒特·霍巴特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
+  </si>
+  <si>
+    <t>哈里·S·杜鲁门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%9C%AC%C2%B7W%C2%B7%E5%B7%B4%E5%85%8B%E5%88%A9</t>
+  </si>
+  <si>
+    <t>阿尔本·W·巴克利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%C2%B7%E6%88%88%E5%B0%94</t>
+  </si>
+  <si>
+    <t>阿尔·戈尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>迈克·彭斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8A%E7%A7%B0</t>
-  </si>
-  <si>
-    <t>尊称</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>任期制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
-  </si>
-  <si>
-    <t>約翰·亞當斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>美國總統繼任順序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美利坚合众国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>麥克·彭斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>美国总统行政办公室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國眾議院議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
-  </si>
-  <si>
-    <t>保羅·萊恩</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
-  </si>
-  <si>
-    <t>en-Party leaders of the United States House of Representatives</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
-  </si>
-  <si>
-    <t>en-List of United States congressional districts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
-  </si>
-  <si>
-    <t>奧林·哈奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
-  </si>
-  <si>
-    <t>美国参议院政党领袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美国首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>約翰·格洛佛·羅伯茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美國最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>美国总统选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國中期選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%AC%AC%E4%B8%89%E5%85%9A%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>美国第三党派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国政党列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_government</t>
-  </si>
-  <si>
-    <t>en-State government</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>地方政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>州長 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
-  </si>
-  <si>
-    <t>en-State legislature (United States)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>州法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美国外交关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国政治列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>Template talk-美國政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E7%BB%A7%E4%BB%BB%E9%A1%BA%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>美国总统继任顺序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9E%E8%81%8C</t>
-  </si>
-  <si>
-    <t>辞职</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E5%8A%BE</t>
-  </si>
-  <si>
-    <t>弹劾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国参议院议长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E8%A5%BF%E5%8E%A2%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>白宫西厢办公室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E5%A4%A9%E6%96%87%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>美国海军天文台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十二条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十二条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%88%88%E5%B0%94</t>
-  </si>
-  <si>
-    <t>艾伯特·戈尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>2000年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%90%AA%C2%B7%E5%BE%B7%E6%B2%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>贝琪·德沃斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
-  </si>
-  <si>
-    <t>約翰·泰勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC25%E6%A2%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第25條修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%8B%89%E5%B0%94%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>杰拉尔德·福特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>理查德·尼克松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>乔治·克林顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
-  </si>
-  <si>
-    <t>托马斯·杰斐逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A</t>
-  </si>
-  <si>
-    <t>詹姆斯·麦迪逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
-  </si>
-  <si>
-    <t>约翰·C·卡尔霍恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·昆西·亚当斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
-  </si>
-  <si>
-    <t>安德鲁·杰克逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%B8%83%E9%87%8C%E5%A5%87%C2%B7%E6%A0%BC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>埃尔布里奇·格里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%B2%81%E7%A6%8F%E6%96%AF%C2%B7%E9%87%91</t>
-  </si>
-  <si>
-    <t>威廉·鲁福斯·金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
-  </si>
-  <si>
-    <t>亨利·威尔逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7A%C2%B7%E4%BA%A8%E5%BE%B7%E9%87%8C%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>托马斯·A·亨德里克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E7%89%B9%C2%B7A%C2%B7%E9%9C%8D%E5%B7%B4%E7%89%B9</t>
-  </si>
-  <si>
-    <t>加勒特·A·霍巴特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7S%C2%B7%E8%88%8D%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>詹姆斯·S·舍曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%93</t>
-  </si>
-  <si>
-    <t>姓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7M%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>理查德·M·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>安德鲁·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>林登·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%9A%AE%E7%BD%97%C2%B7%E9%98%BF%E6%A0%BC%E7%BA%BD</t>
-  </si>
-  <si>
-    <t>斯皮罗·阿格纽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
-  </si>
-  <si>
-    <t>约翰·泰勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>威廉·亨利·哈里森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92%E5%BE%B7%C2%B7%E8%8F%B2%E5%B0%94%E8%8E%AB%E5%B0%94</t>
-  </si>
-  <si>
-    <t>米勒德·菲尔莫尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E9%87%8C%C2%B7%E6%B3%B0%E5%8B%92</t>
-  </si>
-  <si>
-    <t>扎卡里·泰勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>亚伯拉罕·林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%96%AF%E7%89%B9%C2%B7A%C2%B7%E9%98%BF%E7%91%9F</t>
-  </si>
-  <si>
-    <t>切斯特·A·阿瑟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%8A%A0%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>詹姆斯·加菲尔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>西奥多·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%BA%A6%E9%87%91%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>威廉·麦金莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%87%C2%B7%E6%9F%AF%E7%AB%8B%E8%8A%9D</t>
-  </si>
-  <si>
-    <t>卡尔文·柯立芝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7G%C2%B7%E5%93%88%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>沃伦·G·哈定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
-  </si>
-  <si>
-    <t>哈利·S·杜鲁门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·德拉诺·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>约翰·肯尼迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
-  </si>
-  <si>
-    <t>喬治·華盛頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%8C%83%E5%B8%83%E5%80%AB</t>
-  </si>
-  <si>
-    <t>馬丁·范布倫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·H·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%A5%B4%C2%B7%E5%88%97%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>朗奴·列根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E5%B0%94</t>
-  </si>
-  <si>
-    <t>沃尔特·蒙代尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%C2%B7%E5%A5%8E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>丹·奎尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E5%88%87%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>迪克·切尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E6%8B%9C%E7%99%BB</t>
-  </si>
-  <si>
-    <t>乔·拜登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·亚当斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
-  </si>
-  <si>
-    <t>联邦党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>乔治·华盛顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>民主共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%BE%8D%C2%B7%E4%BC%AF%E7%88%BE</t>
-  </si>
-  <si>
-    <t>阿龍·伯爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E6%B1%A4%E6%99%AE%E9%87%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>丹尼尔·汤普金斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%97%A8%E7%BD%97</t>
-  </si>
-  <si>
-    <t>詹姆斯·门罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%8C%83%E5%B8%83%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>马丁·范布伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%89%E6%A0%BC%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>辉格党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7M%C2%B7%E9%81%94%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>喬治·M·達拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E5%B0%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>詹姆斯·诺克斯·波尔克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%9A%AE%E5%B0%94%E6%96%AF</t>
-  </si>
-  <si>
-    <t>福兰克林·皮尔斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%B8%83%E9%9B%B7%E8%82%AF%E9%87%8C%E5%A5%87</t>
-  </si>
-  <si>
-    <t>约翰·C·布雷肯里奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
-  </si>
-  <si>
-    <t>詹姆斯·布坎南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%B0%BC%E5%B7%B4%E5%B0%94%C2%B7%E5%93%88%E5%A7%86%E6%9E%97</t>
-  </si>
-  <si>
-    <t>汉尼巴尔·哈姆林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%87%AF%E5%8B%92%C2%B7%E7%A7%91%E5%B0%94%E6%B3%95%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斯凯勒·科尔法克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E8%A5%BF%E6%96%AF%C2%B7%E8%BE%9B%E6%99%AE%E6%A3%AE%C2%B7%E6%A0%BC%E5%85%B0%E7%89%B9</t>
-  </si>
-  <si>
-    <t>尤里西斯·辛普森·格兰特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7A%C2%B7%E6%83%A0%E5%8B%92</t>
-  </si>
-  <si>
-    <t>威廉·A·惠勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7B%C2%B7%E6%B5%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>拉瑟福德·B·海斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BD%97%E5%BC%97%C2%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%85%B0</t>
-  </si>
-  <si>
-    <t>格罗弗·克利夫兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>本杰明·哈里森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7W%C2%B7%E8%B2%BB%E7%88%BE%E7%8F%AD%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查爾斯·W·費爾班克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
-  </si>
-  <si>
-    <t>威廉·霍华德·塔夫脱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7R%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>托马斯·R·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BD%97%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
-  </si>
-  <si>
-    <t>伍德罗·威尔逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7G%C2%B7%E9%81%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·G·道斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%9F%AF%E8%92%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·柯蒂斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>赫伯特·胡佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%97%E6%96%AF%C2%B7%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>约翰·南斯·加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7A%C2%B7%E5%8D%8E%E8%8E%B1%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>亨利·A·华莱士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E6%9C%AC%C2%B7W%C2%B7%E5%B7%B4%E5%85%8B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>艾爾本·W·巴克利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7D%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
-  </si>
-  <si>
-    <t>德怀特·D·艾森豪威尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E4%BC%AF%E7%89%B9%C2%B7%E6%B1%89%E5%BC%97%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>休伯特·汉弗莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B0%94%E9%80%8A%C2%B7%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
-  </si>
-  <si>
-    <t>纳尔逊·洛克菲勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
-  </si>
-  <si>
-    <t>吉米·卡特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>比尔·克林顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·W·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>巴拉克·歐巴馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
-  </si>
-  <si>
-    <t>纽约市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美国国务卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国国务院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国财政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国内政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国农业部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国商务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国劳工部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国卫生及公共服务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國住房及城市發展部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國運輸部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國能源部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國教育部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國退伍軍人事務部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國國土安全部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地方法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国副总统列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%BE%99%C2%B7%E4%BC%AF%E5%B0%94</t>
-  </si>
-  <si>
-    <t>阿龙·伯尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7D%C2%B7%E6%B1%A4%E6%99%AE%E9%87%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>丹尼尔·D·汤普金斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E9%97%A8%E7%89%B9%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>理查德·门特·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E7%89%B9%C2%B7%E9%9C%8D%E5%B7%B4%E7%89%B9</t>
-  </si>
-  <si>
-    <t>加勒特·霍巴特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
-  </si>
-  <si>
-    <t>哈里·S·杜鲁门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%9C%AC%C2%B7W%C2%B7%E5%B7%B4%E5%85%8B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>阿尔本·W·巴克利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%C2%B7%E6%88%88%E5%B0%94</t>
-  </si>
-  <si>
-    <t>阿尔·戈尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I328"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2274,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2680,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -3808,7 +3784,7 @@
         <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3834,10 +3810,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>8</v>
@@ -3863,10 +3839,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3921,10 +3897,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3950,10 +3926,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3979,10 +3955,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4008,10 +3984,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4037,10 +4013,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>61</v>
@@ -4066,10 +4042,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4095,10 +4071,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4124,10 +4100,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>9</v>
@@ -4153,10 +4129,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4211,10 +4187,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4240,10 +4216,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4269,10 +4245,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -4298,10 +4274,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -4327,10 +4303,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -4356,10 +4332,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -4385,10 +4361,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -4414,10 +4390,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -4443,10 +4419,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4472,10 +4448,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -4501,10 +4477,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4530,10 +4506,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4559,10 +4535,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4588,10 +4564,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4617,10 +4593,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4646,10 +4622,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4675,10 +4651,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4704,10 +4680,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4733,10 +4709,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -4762,10 +4738,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4791,10 +4767,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4820,10 +4796,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4849,10 +4825,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4878,10 +4854,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -4907,10 +4883,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4936,10 +4912,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4965,10 +4941,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -4994,10 +4970,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5023,10 +4999,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
@@ -5052,10 +5028,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -5081,10 +5057,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -5110,10 +5086,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5139,10 +5115,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5168,10 +5144,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -5197,10 +5173,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5226,10 +5202,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5255,10 +5231,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5284,10 +5260,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5313,10 +5289,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5342,10 +5318,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5371,10 +5347,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5400,10 +5376,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5429,10 +5405,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5458,10 +5434,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5487,10 +5463,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5516,10 +5492,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5545,10 +5521,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5574,10 +5550,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>6</v>
@@ -5603,10 +5579,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5632,10 +5608,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5661,10 +5637,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5690,10 +5666,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5719,10 +5695,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5748,10 +5724,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5777,10 +5753,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5806,10 +5782,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5835,10 +5811,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5864,10 +5840,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5893,10 +5869,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5922,10 +5898,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5951,10 +5927,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5980,10 +5956,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6009,10 +5985,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6038,10 +6014,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6067,10 +6043,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6096,10 +6072,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6125,10 +6101,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6154,10 +6130,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6183,10 +6159,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6212,10 +6188,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6241,10 +6217,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6270,10 +6246,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6299,10 +6275,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6328,10 +6304,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6357,10 +6333,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6386,10 +6362,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6415,10 +6391,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6444,10 +6420,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6473,10 +6449,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6502,10 +6478,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F148" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6531,10 +6507,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6560,10 +6536,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6589,10 +6565,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6618,10 +6594,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6647,10 +6623,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F153" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6676,10 +6652,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6705,10 +6681,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6734,10 +6710,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6763,10 +6739,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6792,10 +6768,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6850,10 +6826,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>12</v>
@@ -6879,10 +6855,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6908,10 +6884,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6937,10 +6913,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6966,10 +6942,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6995,10 +6971,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7024,10 +7000,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7053,10 +7029,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7082,10 +7058,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7111,10 +7087,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7140,10 +7116,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7169,10 +7145,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7198,10 +7174,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7227,10 +7203,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7256,10 +7232,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7285,10 +7261,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7314,10 +7290,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -7372,10 +7348,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>54</v>
       </c>
       <c r="G178" t="n">
         <v>6</v>
@@ -7401,10 +7377,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7459,10 +7435,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7488,10 +7464,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7517,10 +7493,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>221</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7546,10 +7522,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7575,10 +7551,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7604,10 +7580,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F186" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7633,10 +7609,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7662,10 +7638,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F188" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7691,10 +7667,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7720,10 +7696,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7749,10 +7725,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7807,10 +7783,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7836,10 +7812,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7865,10 +7841,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7894,10 +7870,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7923,10 +7899,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7952,10 +7928,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7981,10 +7957,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8010,10 +7986,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8039,10 +8015,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8068,10 +8044,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8097,10 +8073,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8126,10 +8102,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8155,10 +8131,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8184,10 +8160,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8213,10 +8189,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8242,10 +8218,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8271,10 +8247,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8300,10 +8276,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8329,10 +8305,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8358,10 +8334,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8387,10 +8363,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8416,10 +8392,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8445,10 +8421,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8474,10 +8450,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8503,10 +8479,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8532,10 +8508,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F218" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8619,10 +8595,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8648,10 +8624,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8677,10 +8653,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8735,10 +8711,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F225" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8764,10 +8740,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8793,10 +8769,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F227" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -8822,10 +8798,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F228" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8851,10 +8827,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8880,10 +8856,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F230" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8909,10 +8885,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F231" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8938,10 +8914,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F232" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8967,10 +8943,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F233" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8996,10 +8972,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F234" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9025,10 +9001,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F235" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9054,10 +9030,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F236" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9083,10 +9059,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9112,10 +9088,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F238" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9141,10 +9117,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F239" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9199,10 +9175,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F241" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9228,10 +9204,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9257,10 +9233,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9286,10 +9262,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9315,10 +9291,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9344,10 +9320,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9373,10 +9349,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9402,10 +9378,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9431,10 +9407,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9460,10 +9436,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F250" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9489,10 +9465,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F251" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9518,10 +9494,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F252" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9547,10 +9523,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F253" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9576,10 +9552,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F254" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9605,10 +9581,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F255" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9634,10 +9610,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F256" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9663,10 +9639,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F257" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9692,10 +9668,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F258" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9721,10 +9697,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F259" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9750,10 +9726,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F260" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9779,10 +9755,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F261" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9808,10 +9784,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9837,10 +9813,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9866,10 +9842,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F264" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9895,10 +9871,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9924,10 +9900,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F266" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9953,10 +9929,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F267" t="s">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9982,10 +9958,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10011,10 +9987,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10040,10 +10016,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10069,10 +10045,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10098,10 +10074,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10127,10 +10103,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F273" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10156,10 +10132,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F274" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10185,10 +10161,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F275" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10214,10 +10190,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10243,10 +10219,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10272,10 +10248,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10301,10 +10277,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10330,10 +10306,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10359,10 +10335,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10388,10 +10364,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10417,10 +10393,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -10446,10 +10422,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10475,10 +10451,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G285" t="n">
         <v>5</v>
@@ -10504,10 +10480,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10533,10 +10509,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10562,10 +10538,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F288" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10591,10 +10567,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10620,10 +10596,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10649,10 +10625,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F291" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -10678,10 +10654,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F292" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -10707,10 +10683,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F293" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10736,10 +10712,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F294" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10765,10 +10741,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10794,10 +10770,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F296" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10823,10 +10799,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10852,10 +10828,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10881,10 +10857,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10910,10 +10886,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F300" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10939,10 +10915,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F301" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -10968,10 +10944,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F302" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10997,10 +10973,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F303" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11026,10 +11002,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F304" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11055,10 +11031,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F305" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11084,10 +11060,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11113,10 +11089,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F307" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11142,10 +11118,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F308" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11171,10 +11147,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F309" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G309" t="n">
         <v>4</v>
@@ -11200,10 +11176,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F310" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11229,10 +11205,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11258,10 +11234,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11287,10 +11263,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11316,10 +11292,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F314" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11345,10 +11321,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F315" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11374,10 +11350,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F316" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11403,10 +11379,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F317" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11432,10 +11408,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F318" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11461,10 +11437,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F319" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11490,10 +11466,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F320" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11519,10 +11495,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F321" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11548,10 +11524,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11577,10 +11553,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11606,10 +11582,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11635,10 +11611,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11664,10 +11640,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F326" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11693,10 +11669,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11722,10 +11698,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11734,6 +11710,64 @@
         <v>4</v>
       </c>
       <c r="I328" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>328</v>
+      </c>
+      <c r="E329" t="s">
+        <v>608</v>
+      </c>
+      <c r="F329" t="s">
+        <v>609</v>
+      </c>
+      <c r="G329" t="n">
+        <v>6</v>
+      </c>
+      <c r="H329" t="s">
+        <v>4</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>329</v>
+      </c>
+      <c r="E330" t="s">
+        <v>608</v>
+      </c>
+      <c r="F330" t="s">
+        <v>610</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
+      <c r="H330" t="s">
+        <v>4</v>
+      </c>
+      <c r="I330" t="n">
         <v>3</v>
       </c>
     </row>
